--- a/data/trans_camb/P1427-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1427-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.383682888794944</v>
+        <v>-4.337316693510342</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.694230964280987</v>
+        <v>2.57961187723228</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.519807674298687</v>
+        <v>-2.538420927877996</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.137017480221457</v>
+        <v>4.888141658219481</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.833566510987032</v>
+        <v>-2.773620834251699</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.847280260696621</v>
+        <v>4.576342016587467</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.6889316392550713</v>
+        <v>-0.6644974255409047</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.851579593565074</v>
+        <v>7.779206401324071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.586613810710096</v>
+        <v>1.473384861374428</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.406990900354991</v>
+        <v>9.315766068007209</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.02099590622847945</v>
+        <v>-0.01405515560514331</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.158827359977439</v>
+        <v>8.126368153226201</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6974707703074081</v>
+        <v>-0.7063921731590193</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4449558852235997</v>
+        <v>0.3815421696976062</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3630792960805837</v>
+        <v>-0.3674541300880929</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6984873425519577</v>
+        <v>0.6701526644387886</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4374409705336595</v>
+        <v>-0.446017659782621</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7587596403736262</v>
+        <v>0.7001321713505287</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1541372033099174</v>
+        <v>-0.1363292435523679</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.08714281120953</v>
+        <v>1.971565920863984</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2805814151684883</v>
+        <v>0.2824957310458118</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.776648472126233</v>
+        <v>1.796612823386455</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.004468804552711354</v>
+        <v>0.006393113573121974</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.637333141558978</v>
+        <v>1.640256530124282</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7741857674610074</v>
+        <v>-0.7830148960449893</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3372407548522295</v>
+        <v>0.2955500315318704</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2339140784640128</v>
+        <v>-0.2260307859535405</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7061995564495024</v>
+        <v>0.6956497892754129</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.3632665323214808</v>
+        <v>-0.4027219442361544</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7104005883062472</v>
+        <v>0.6905427267927862</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3066494012559831</v>
+        <v>0.3169449901757678</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.676180485351234</v>
+        <v>1.682121451437636</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.010732702681861</v>
+        <v>0.9914381507303194</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.880674552934992</v>
+        <v>1.855809331425644</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4633510201267471</v>
+        <v>0.4508935393646086</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.632318665288348</v>
+        <v>1.60983804947022</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>0.7135650642051033</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>2.404530776405997</v>
+        <v>2.404530776405998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1007686228272203</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6714116376992819</v>
+        <v>-0.6771934278670751</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1649240346384982</v>
+        <v>0.2046454789426549</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3640294074751423</v>
+        <v>-0.3473511765569698</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5639912350421248</v>
+        <v>0.5987012179910723</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.392905570874135</v>
+        <v>-0.4229571703071014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6998216990402352</v>
+        <v>0.6410134179934461</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7249535606466196</v>
+        <v>0.7334632558075321</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.15421484788874</v>
+        <v>3.284145888956401</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.492804207632592</v>
+        <v>4.183194966378231</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7.38771105286794</v>
+        <v>7.185611289241166</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.082181659507125</v>
+        <v>0.9013673836470701</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.659869016755016</v>
+        <v>3.500969280050616</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>0.3802564847698623</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.285774939262067</v>
+        <v>1.285774939262066</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8077751284767861</v>
+        <v>-0.9369875648262743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1163809981978646</v>
+        <v>-0.2338021373814308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3102623137817482</v>
+        <v>-0.3644661129583369</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6747915610420702</v>
+        <v>0.6366941813988969</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3147124514888974</v>
+        <v>-0.3334929656865575</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5254541831812353</v>
+        <v>0.5313216830306022</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.011543179273148</v>
+        <v>0.9857160185041316</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.900776940672281</v>
+        <v>1.994870506762133</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.000474687382065</v>
+        <v>1.931596949686219</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.932645367656069</v>
+        <v>2.9584533416596</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.197617443878343</v>
+        <v>1.127668177733997</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.070494082317816</v>
+        <v>2.031655046985949</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.7413544050784315</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.506768334899765</v>
+        <v>2.506768334899764</v>
       </c>
     </row>
     <row r="20">
@@ -1034,17 +1034,17 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-0.2225694314304265</v>
+        <v>-0.387720823835078</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>0.238066743861084</v>
+        <v>0.08727515311711201</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5043397938123482</v>
+        <v>-0.5347207736715393</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2628731653715356</v>
+        <v>0.3878526184978503</v>
       </c>
     </row>
     <row r="21">
@@ -1055,16 +1055,14 @@
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr"/>
-      <c r="D21" s="6" t="n">
-        <v>9.413508310666103</v>
-      </c>
+      <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>5.695960455088044</v>
+        <v>5.145858888516051</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>10.65176170059438</v>
+        <v>9.579606285465999</v>
       </c>
     </row>
     <row r="22">
@@ -1088,7 +1086,7 @@
         <v>-0.3704771131185017</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.793153485009516</v>
+        <v>1.793153485009514</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.6477888399926486</v>
@@ -1105,22 +1103,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.604429783426188</v>
+        <v>-1.545170712318973</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4674034002393116</v>
+        <v>0.3871907768859125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.190104278826308</v>
+        <v>-1.14293194054979</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.015565662459849</v>
+        <v>1.07920428330563</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.144229732253558</v>
+        <v>-1.136906913569485</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9115878674054011</v>
+        <v>0.9498216123157192</v>
       </c>
     </row>
     <row r="24">
@@ -1131,22 +1129,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.3304906157989868</v>
+        <v>-0.3571392503314211</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.829478400275715</v>
+        <v>1.776076054635408</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3761001220301314</v>
+        <v>0.3419608285986602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.620723243416403</v>
+        <v>2.669665118310742</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1464673591169293</v>
+        <v>-0.1651906840641021</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.964584827070495</v>
+        <v>1.989028114999256</v>
       </c>
     </row>
     <row r="25">
@@ -1160,13 +1158,13 @@
         <v>-0.4729472739506131</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.5685011848022112</v>
+        <v>0.5685011848022115</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.1398771542406722</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.6770221363705308</v>
+        <v>0.6770221363705302</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.2786833558526643</v>
@@ -1183,22 +1181,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6631421349990381</v>
+        <v>-0.6446932405996776</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1915225813972047</v>
+        <v>0.1382997752402141</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3951543049342769</v>
+        <v>-0.3705143695420459</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3183620022706176</v>
+        <v>0.3568375598116925</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4336911271506152</v>
+        <v>-0.4372150888513326</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3524735734724846</v>
+        <v>0.3677168638233225</v>
       </c>
     </row>
     <row r="27">
@@ -1209,22 +1207,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1905725650506961</v>
+        <v>-0.2055125391387699</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.137881122325154</v>
+        <v>1.094649661710808</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.169297345977742</v>
+        <v>0.1567046053298246</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.172067384627815</v>
+        <v>1.247683256880365</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.0720137969964622</v>
+        <v>-0.06896930445336635</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9659022329923421</v>
+        <v>0.9655782095972596</v>
       </c>
     </row>
     <row r="28">
